--- a/temp/preprocessed_dataset.xlsx
+++ b/temp/preprocessed_dataset.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>cleaning</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>case_folding</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cleaning</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>apa mau jadi dosen? terima kasih atas pertanyaannya, bu. menjadi dosen bisa dibilang itu merupakan satu fashion bagi saya. karena selama menempuh studi mulai dari s1, s2, di situ saya diemban untuk terus belajar membuat saya tertarik di dunia dosen. di mana saya membuktikan itu dari bidang pengajaran, aktif dengan menjadi asisten dosen, di situ minum saya terhadap terjun di dunia pedosenan itu terus meningkat. selain itu saya juga memiliki minat di bidang penelitian. saya sering join pada penelitian dosen, di situ saya dilatih untuk terus mengembangkan ilmu pengetahuan, mencari potensi-potensi penelitian yang nantinya akan bermanfaat untuk masyarakat keturunan, masyarakat kedepannya.</t>
+          <t>Apa mau jadi dosen Terima kasih atas pertanyaannya Bu Menjadi dosen bisa dibilang itu merupakan satu fashion bagi saya Karena selama menempuh studi mulai dari   di situ saya diemban untuk terus belajar membuat saya tertarik di dunia dosen Di mana saya membuktikan itu dari bidang pengajaran aktif dengan menjadi asisten dosen di situ minum saya terhadap terjun di dunia pedosenan itu terus meningkat Selain itu saya juga memiliki minat di bidang penelitian Saya sering join pada penelitian dosen di situ saya dilatih untuk terus mengembangkan ilmu pengetahuan mencari potensi potensi penelitian yang nantinya akan bermanfaat untuk masyarakat keturunan masyarakat kedepannya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,17 +483,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['apa', 'mau', 'jadi', 'dosen', 'terima', 'kasih', 'atas', 'pertanyaannya', 'bu', 'menjadi', 'dosen', 'bisa', 'dibilang', 'itu', 'merupakan', 'satu', 'fashion', 'bagi', 'saya', 'karena', 'selama', 'menempuh', 'studi', 'mulai', 'dari', 'di', 'situ', 'saya', 'diemban', 'untuk', 'terus', 'belajar', 'membuat', 'saya', 'tertarik', 'di', 'dunia', 'dosen', 'di', 'mana', 'saya', 'membuktikan', 'itu', 'dari', 'bidang', 'pengajaran', 'aktif', 'dengan', 'menjadi', 'asisten', 'dosen', 'di', 'situ', 'minum', 'saya', 'terhadap', 'terjun', 'di', 'dunia', 'pedosenan', 'itu', 'terus', 'meningkat', 'selain', 'itu', 'saya', 'juga', 'memiliki', 'minat', 'di', 'bidang', 'penelitian', 'saya', 'sering', 'join', 'pada', 'penelitian', 'dosen', 'di', 'situ', 'saya', 'dilatih', 'untuk', 'terus', 'mengembangkan', 'ilmu', 'pengetahuan', 'mencari', 'potensi', 'potensi', 'penelitian', 'yang', 'nantinya', 'akan', 'bermanfaat', 'untuk', 'masyarakat', 'keturunan', 'masyarakat', 'kedepannya']</t>
+          <t>['Apa', 'mau', 'jadi', 'dosen', 'Terima', 'kasih', 'atas', 'pertanyaannya', 'Bu', 'Menjadi', 'dosen', 'bisa', 'dibilang', 'itu', 'merupakan', 'satu', 'fashion', 'bagi', 'saya', 'Karena', 'selama', 'menempuh', 'studi', 'mulai', 'dari', 'di', 'situ', 'saya', 'diemban', 'untuk', 'terus', 'belajar', 'membuat', 'saya', 'tertarik', 'di', 'dunia', 'dosen', 'Di', 'mana', 'saya', 'membuktikan', 'itu', 'dari', 'bidang', 'pengajaran', 'aktif', 'dengan', 'menjadi', 'asisten', 'dosen', 'di', 'situ', 'minum', 'saya', 'terhadap', 'terjun', 'di', 'dunia', 'pedosenan', 'itu', 'terus', 'meningkat', 'Selain', 'itu', 'saya', 'juga', 'memiliki', 'minat', 'di', 'bidang', 'penelitian', 'Saya', 'sering', 'join', 'pada', 'penelitian', 'dosen', 'di', 'situ', 'saya', 'dilatih', 'untuk', 'terus', 'mengembangkan', 'ilmu', 'pengetahuan', 'mencari', 'potensi', 'potensi', 'penelitian', 'yang', 'nantinya', 'akan', 'bermanfaat', 'untuk', 'masyarakat', 'keturunan', 'masyarakat', 'kedepannya']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['dosen', 'terima', 'kasih', 'pertanyaannya', 'bu', 'dosen', 'dibilang', 'fashion', 'menempuh', 'studi', 'situ', 'diemban', 'belajar', 'tertarik', 'dunia', 'dosen', 'membuktikan', 'bidang', 'pengajaran', 'aktif', 'asisten', 'dosen', 'situ', 'minum', 'terjun', 'dunia', 'pedosenan', 'meningkat', 'memiliki', 'minat', 'bidang', 'penelitian', 'join', 'penelitian', 'dosen', 'situ', 'dilatih', 'mengembangkan', 'ilmu', 'pengetahuan', 'mencari', 'potensi', 'potensi', 'penelitian', 'bermanfaat', 'masyarakat', 'keturunan', 'masyarakat', 'kedepannya']</t>
+          <t>['Apa', 'dosen', 'Terima', 'kasih', 'pertanyaannya', 'Bu', 'Menjadi', 'dosen', 'dibilang', 'fashion', 'Karena', 'menempuh', 'studi', 'situ', 'diemban', 'belajar', 'tertarik', 'dunia', 'dosen', 'Di', 'membuktikan', 'bidang', 'pengajaran', 'aktif', 'asisten', 'dosen', 'situ', 'minum', 'terjun', 'dunia', 'pedosenan', 'meningkat', 'Selain', 'memiliki', 'minat', 'bidang', 'penelitian', 'Saya', 'join', 'penelitian', 'dosen', 'situ', 'dilatih', 'mengembangkan', 'ilmu', 'pengetahuan', 'mencari', 'potensi', 'potensi', 'penelitian', 'bermanfaat', 'masyarakat', 'keturunan', 'masyarakat', 'kedepannya']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['dosen', 'terima', 'kasih', 'tanya', 'bu', 'dosen', 'bilang', 'fashion', 'tempuh', 'studi', 'situ', 'emban', 'ajar', 'tarik', 'dunia', 'dosen', 'bukti', 'bidang', 'ajar', 'aktif', 'asisten', 'dosen', 'situ', 'minum', 'terjun', 'dunia', 'dosen', 'tingkat', 'milik', 'minat', 'bidang', 'teliti', 'join', 'teliti', 'dosen', 'situ', 'latih', 'kembang', 'ilmu', 'tahu', 'cari', 'potensi', 'potensi', 'teliti', 'manfaat', 'masyarakat', 'turun', 'masyarakat', 'depan']</t>
+          <t>['apa', 'dosen', 'terima', 'kasih', 'tanya', 'bu', 'jadi', 'dosen', 'bilang', 'fashion', 'karena', 'tempuh', 'studi', 'situ', 'emban', 'ajar', 'tarik', 'dunia', 'dosen', 'di', 'bukti', 'bidang', 'ajar', 'aktif', 'asisten', 'dosen', 'situ', 'minum', 'terjun', 'dunia', 'dosen', 'tingkat', 'selain', 'milik', 'minat', 'bidang', 'teliti', 'saya', 'join', 'teliti', 'dosen', 'situ', 'latih', 'kembang', 'ilmu', 'tahu', 'cari', 'potensi', 'potensi', 'teliti', 'manfaat', 'masyarakat', 'turun', 'masyarakat', 'depan']</t>
         </is>
       </c>
     </row>
